--- a/Music/Guitar/P4/Chords.xlsx
+++ b/Music/Guitar/P4/Chords.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://www.dropbox.com/8104752/Stuff/test files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{5F50910E-301C-FE44-8F7C-0B7C30251B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{CB1922CE-CF23-C845-A942-97E2B437363B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6400" windowHeight="11360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6400" windowHeight="11360" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Network" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Triads" sheetId="2" r:id="rId3"/>
-    <sheet name="Voicings" sheetId="3" r:id="rId4"/>
+    <sheet name="Roots" sheetId="5" r:id="rId1"/>
+    <sheet name="Strummy" sheetId="6" r:id="rId2"/>
+    <sheet name="Network" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Triads" sheetId="2" r:id="rId5"/>
+    <sheet name="Voicings" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
@@ -28,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="12">
   <si>
     <t>X</t>
   </si>
@@ -72,12 +75,15 @@
   <si>
     <t>III/IV</t>
   </si>
+  <si>
+    <t>L</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,6 +95,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="6" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -288,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -366,6 +379,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -647,13 +666,539 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C64B008-E7CA-184A-8E06-F756A7C9AC67}">
+  <dimension ref="A2:J19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="2.7109375" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="27">
+        <v>1</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D7" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E8" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="27">
+        <v>2</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E12" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E13" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="27">
+        <v>6</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G17" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G18" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="H19" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8284EA8C-6114-7444-A95D-5F56D101179A}">
+  <dimension ref="B2:Q18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.46484375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="2.46484375" style="27"/>
+    <col min="6" max="6" width="2.95703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="16" width="2.46484375" style="27"/>
+    <col min="17" max="17" width="5.91796875" style="27" customWidth="1"/>
+    <col min="18" max="16384" width="2.46484375" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C2" s="27">
+        <v>9</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C3" s="27">
+        <v>4</v>
+      </c>
+      <c r="D3" s="27">
+        <v>5</v>
+      </c>
+      <c r="E3" s="28">
+        <v>6</v>
+      </c>
+      <c r="F3" s="27">
+        <v>7</v>
+      </c>
+      <c r="G3" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="27">
+        <v>0</v>
+      </c>
+      <c r="E4" s="28">
+        <v>1</v>
+      </c>
+      <c r="F4" s="27">
+        <v>2</v>
+      </c>
+      <c r="G4" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F7" s="27">
+        <f>11</f>
+        <v>11</v>
+      </c>
+      <c r="G7" s="27">
+        <f>0+5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E8" s="27">
+        <f>2+5</f>
+        <v>7</v>
+      </c>
+      <c r="G8" s="27">
+        <f>0+7</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E9" s="27">
+        <f>0+5</f>
+        <v>5</v>
+      </c>
+      <c r="G9" s="27">
+        <f>2+7</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B13" s="27">
+        <v>0</v>
+      </c>
+      <c r="C13" s="27">
+        <v>0</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0</v>
+      </c>
+      <c r="F13" s="27">
+        <v>1</v>
+      </c>
+      <c r="G13" s="27">
+        <v>0</v>
+      </c>
+      <c r="H13" s="27">
+        <v>0</v>
+      </c>
+      <c r="I13" s="27">
+        <v>0</v>
+      </c>
+      <c r="J13" s="27">
+        <v>1</v>
+      </c>
+      <c r="K13" s="27">
+        <v>0</v>
+      </c>
+      <c r="L13" s="27">
+        <v>0</v>
+      </c>
+      <c r="M13" s="27">
+        <v>1</v>
+      </c>
+      <c r="O13" s="27" t="str">
+        <f>_xlfn.CONCAT(B13:K13)</f>
+        <v>0000100010</v>
+      </c>
+      <c r="Q13" s="27">
+        <f>BIN2DEC(O13)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="27">
+        <v>0</v>
+      </c>
+      <c r="C14" s="27">
+        <v>0</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0</v>
+      </c>
+      <c r="F14" s="27">
+        <v>1</v>
+      </c>
+      <c r="G14" s="27">
+        <v>0</v>
+      </c>
+      <c r="H14" s="27">
+        <v>0</v>
+      </c>
+      <c r="I14" s="27">
+        <v>0</v>
+      </c>
+      <c r="J14" s="27">
+        <v>1</v>
+      </c>
+      <c r="K14" s="27">
+        <v>0</v>
+      </c>
+      <c r="L14" s="27">
+        <v>0</v>
+      </c>
+      <c r="M14" s="27">
+        <v>1</v>
+      </c>
+      <c r="O14" s="27" t="str">
+        <f t="shared" ref="O14:O18" si="0">_xlfn.CONCAT(B14:K14)</f>
+        <v>0000100010</v>
+      </c>
+      <c r="Q14" s="27">
+        <f t="shared" ref="Q14:Q18" si="1">BIN2DEC(O14)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="27">
+        <v>0</v>
+      </c>
+      <c r="C15" s="27">
+        <v>0</v>
+      </c>
+      <c r="D15" s="27">
+        <v>1</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0</v>
+      </c>
+      <c r="F15" s="27">
+        <v>0</v>
+      </c>
+      <c r="G15" s="27">
+        <v>0</v>
+      </c>
+      <c r="H15" s="27">
+        <v>1</v>
+      </c>
+      <c r="I15" s="27">
+        <v>0</v>
+      </c>
+      <c r="J15" s="27">
+        <v>1</v>
+      </c>
+      <c r="K15" s="27">
+        <v>0</v>
+      </c>
+      <c r="L15" s="27">
+        <v>0</v>
+      </c>
+      <c r="M15" s="27">
+        <v>1</v>
+      </c>
+      <c r="O15" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>0010001010</v>
+      </c>
+      <c r="Q15" s="27">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="27">
+        <v>0</v>
+      </c>
+      <c r="C16" s="27">
+        <v>0</v>
+      </c>
+      <c r="D16" s="27">
+        <v>0</v>
+      </c>
+      <c r="E16" s="27">
+        <v>1</v>
+      </c>
+      <c r="F16" s="27">
+        <v>1</v>
+      </c>
+      <c r="G16" s="27">
+        <v>0</v>
+      </c>
+      <c r="H16" s="27">
+        <v>0</v>
+      </c>
+      <c r="I16" s="27">
+        <v>0</v>
+      </c>
+      <c r="J16" s="27">
+        <v>0</v>
+      </c>
+      <c r="K16" s="27">
+        <v>1</v>
+      </c>
+      <c r="L16" s="27">
+        <v>1</v>
+      </c>
+      <c r="M16" s="27">
+        <v>0</v>
+      </c>
+      <c r="O16" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>0001100001</v>
+      </c>
+      <c r="Q16" s="27">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17" s="27">
+        <v>1</v>
+      </c>
+      <c r="C17" s="27">
+        <v>0</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0</v>
+      </c>
+      <c r="E17" s="27">
+        <v>0</v>
+      </c>
+      <c r="F17" s="27">
+        <v>0</v>
+      </c>
+      <c r="G17" s="27">
+        <v>0</v>
+      </c>
+      <c r="H17" s="27">
+        <v>0</v>
+      </c>
+      <c r="I17" s="27">
+        <v>1</v>
+      </c>
+      <c r="J17" s="27">
+        <v>1</v>
+      </c>
+      <c r="K17" s="27">
+        <v>0</v>
+      </c>
+      <c r="L17" s="27">
+        <v>1</v>
+      </c>
+      <c r="M17" s="27">
+        <v>0</v>
+      </c>
+      <c r="O17" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>1000000110</v>
+      </c>
+      <c r="Q17" s="27">
+        <f t="shared" si="1"/>
+        <v>-506</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="27">
+        <v>0</v>
+      </c>
+      <c r="C18" s="27">
+        <v>0</v>
+      </c>
+      <c r="D18" s="27">
+        <v>1</v>
+      </c>
+      <c r="E18" s="27">
+        <v>0</v>
+      </c>
+      <c r="F18" s="27">
+        <v>0</v>
+      </c>
+      <c r="G18" s="27">
+        <v>0</v>
+      </c>
+      <c r="H18" s="27">
+        <v>0</v>
+      </c>
+      <c r="I18" s="27">
+        <v>0</v>
+      </c>
+      <c r="J18" s="27">
+        <v>0</v>
+      </c>
+      <c r="K18" s="27">
+        <v>0</v>
+      </c>
+      <c r="L18" s="27">
+        <v>1</v>
+      </c>
+      <c r="M18" s="27">
+        <v>0</v>
+      </c>
+      <c r="O18" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000000</v>
+      </c>
+      <c r="Q18" s="27">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEAD8C0-B3E4-AB4B-BDEE-2448AE2EB528}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="B2:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -1151,7 +1696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -1663,7 +2208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7523B1BD-E051-D64B-93DB-C036BDAF41FC}">
   <dimension ref="A1:V25"/>
   <sheetViews>
@@ -2000,7 +2545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876446DA-2276-F141-B35D-3C32B5BDC9F5}">
   <dimension ref="C2:K24"/>
   <sheetViews>

--- a/Music/Guitar/P4/Chords.xlsx
+++ b/Music/Guitar/P4/Chords.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://www.dropbox.com/8104752/Stuff/test files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{CB1922CE-CF23-C845-A942-97E2B437363B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{F1EE7425-853E-044A-918C-5B1375E9E554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6400" windowHeight="11360" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6400" windowHeight="11360" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roots" sheetId="5" r:id="rId1"/>
     <sheet name="Strummy" sheetId="6" r:id="rId2"/>
     <sheet name="Network" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Triads" sheetId="2" r:id="rId5"/>
-    <sheet name="Voicings" sheetId="3" r:id="rId6"/>
+    <sheet name="Flow" sheetId="1" r:id="rId4"/>
+    <sheet name="4-string" sheetId="7" r:id="rId5"/>
+    <sheet name="Triads" sheetId="2" r:id="rId6"/>
+    <sheet name="Voicings" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="13">
   <si>
     <t>X</t>
   </si>
@@ -77,6 +78,9 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>:</t>
   </si>
 </sst>
 </file>
@@ -301,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,6 +389,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -819,7 +826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8284EA8C-6114-7444-A95D-5F56D101179A}">
   <dimension ref="B2:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
@@ -2209,6 +2216,169 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1ED7829-5815-ED49-AA83-8A1CF8CA7DE9}">
+  <dimension ref="B2:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.46484375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="2.46484375" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="27">
+        <v>3</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27">
+        <v>1</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="27">
+        <v>5</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="27">
+        <v>1</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D9" s="27">
+        <v>7</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E10" s="27">
+        <v>5</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E11" s="27">
+        <v>2</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I15" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I16" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="J17" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I21" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I22" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="J23" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I27" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="J28" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7523B1BD-E051-D64B-93DB-C036BDAF41FC}">
   <dimension ref="A1:V25"/>
   <sheetViews>
@@ -2545,7 +2715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876446DA-2276-F141-B35D-3C32B5BDC9F5}">
   <dimension ref="C2:K24"/>
   <sheetViews>
